--- a/kaart_linken.xlsx
+++ b/kaart_linken.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14200" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Kaart 1" sheetId="1" r:id="rId1"/>
     <sheet name="Kaart 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Blad1" sheetId="3" r:id="rId3"/>
+    <sheet name="Kaart1_lijst" sheetId="3" r:id="rId3"/>
+    <sheet name="Kaart2_lijst" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,10 +23,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -48,13 +65,105 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="47">
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:B170"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -690,151 +799,151 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49">
         <v>11</v>
       </c>
-      <c r="B49">
-        <v>21</v>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53">
         <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B56">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>13</v>
-      </c>
-      <c r="B57">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B61">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>14</v>
-      </c>
-      <c r="B62">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65">
         <v>14</v>
-      </c>
-      <c r="B65">
-        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
         <v>14</v>
       </c>
-      <c r="B66">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>14</v>
-      </c>
-      <c r="B67">
-        <v>26</v>
+      <c r="B68">
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -842,31 +951,31 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="B71">
         <v>15</v>
-      </c>
-      <c r="B71">
-        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73">
         <v>22</v>
@@ -874,175 +983,183 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>16</v>
-      </c>
-      <c r="B76">
-        <v>10</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>14</v>
+      </c>
+      <c r="B75">
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B77">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
+        <v>15</v>
+      </c>
+      <c r="B80">
         <v>16</v>
       </c>
-      <c r="B80">
-        <v>24</v>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B82">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>17</v>
-      </c>
-      <c r="B83">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B84">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
+        <v>16</v>
+      </c>
+      <c r="B85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>16</v>
+      </c>
+      <c r="B86">
         <v>17</v>
-      </c>
-      <c r="B85">
-        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B87">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B88">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <v>18</v>
-      </c>
-      <c r="B89">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
+        <v>17</v>
+      </c>
+      <c r="B90">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>17</v>
+      </c>
+      <c r="B91">
         <v>18</v>
-      </c>
-      <c r="B90">
-        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B92">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B93">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>20</v>
-      </c>
-      <c r="B95">
-        <v>13</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>17</v>
+      </c>
+      <c r="B94">
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B97">
-        <v>25</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
+        <v>18</v>
+      </c>
+      <c r="B99">
         <v>21</v>
-      </c>
-      <c r="B99">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
-        <v>21</v>
-      </c>
-      <c r="B100">
-        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B101">
         <v>12</v>
@@ -1050,23 +1167,23 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B102">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
-        <v>21</v>
-      </c>
-      <c r="B103">
         <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>20</v>
+      </c>
+      <c r="B104">
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B105">
         <v>14</v>
@@ -1074,366 +1191,423 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B106">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
-        <v>22</v>
-      </c>
-      <c r="B107">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B108">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B109">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B110">
-        <v>27</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>21</v>
+      </c>
+      <c r="B111">
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B112">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113">
-        <v>23</v>
-      </c>
-      <c r="B113">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B114">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B115">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
+        <v>22</v>
+      </c>
+      <c r="B116">
         <v>23</v>
       </c>
-      <c r="B116">
-        <v>27</v>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>22</v>
+      </c>
+      <c r="B117">
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B118">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B119">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120">
-        <v>24</v>
-      </c>
-      <c r="B120">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B121">
-        <v>28</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>23</v>
+      </c>
+      <c r="B122">
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B123">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B124">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125">
-        <v>25</v>
-      </c>
-      <c r="B125">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>24</v>
+      </c>
+      <c r="B126">
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B128">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B129">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
-        <v>26</v>
-      </c>
-      <c r="B130">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B131">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B132">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
+        <v>25</v>
+      </c>
+      <c r="B133">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>25</v>
+      </c>
+      <c r="B134">
         <v>26</v>
-      </c>
-      <c r="B133">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135">
-        <v>27</v>
-      </c>
-      <c r="B135">
-        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B136">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B137">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
+        <v>26</v>
+      </c>
+      <c r="B138">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>26</v>
+      </c>
+      <c r="B139">
         <v>27</v>
-      </c>
-      <c r="B138">
-        <v>32</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B140">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B141">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B142">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143">
-        <v>28</v>
-      </c>
-      <c r="B143">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B144">
-        <v>30</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>27</v>
+      </c>
+      <c r="B145">
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B146">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B147">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B149">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B150">
-        <v>29</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>28</v>
+      </c>
+      <c r="B151">
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B152">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B153">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B155">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B156">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157">
-        <v>32</v>
-      </c>
-      <c r="B157">
-        <v>33</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>30</v>
+      </c>
+      <c r="B158">
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B159">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160">
-        <v>33</v>
-      </c>
-      <c r="B160">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
+        <v>31</v>
+      </c>
+      <c r="B161">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>31</v>
+      </c>
+      <c r="B162">
         <v>33</v>
       </c>
-      <c r="B161">
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>32</v>
+      </c>
+      <c r="B164">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>32</v>
+      </c>
+      <c r="B165">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>32</v>
+      </c>
+      <c r="B166">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>33</v>
+      </c>
+      <c r="B168">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>33</v>
+      </c>
+      <c r="B169">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>33</v>
+      </c>
+      <c r="B170">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1444,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B260"/>
+  <dimension ref="A1:B269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1993,7 +2167,7 @@
         <v>17</v>
       </c>
       <c r="B84">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2001,15 +2175,15 @@
         <v>17</v>
       </c>
       <c r="B85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>17</v>
+      </c>
+      <c r="B86">
         <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>18</v>
-      </c>
-      <c r="B87">
-        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2017,7 +2191,7 @@
         <v>18</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2025,7 +2199,7 @@
         <v>18</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2033,7 +2207,7 @@
         <v>18</v>
       </c>
       <c r="B90">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2041,15 +2215,15 @@
         <v>18</v>
       </c>
       <c r="B91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>18</v>
+      </c>
+      <c r="B92">
         <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>19</v>
-      </c>
-      <c r="B93">
-        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2057,7 +2231,7 @@
         <v>19</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2065,7 +2239,7 @@
         <v>19</v>
       </c>
       <c r="B95">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2073,7 +2247,7 @@
         <v>19</v>
       </c>
       <c r="B96">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2081,7 +2255,7 @@
         <v>19</v>
       </c>
       <c r="B97">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2089,23 +2263,23 @@
         <v>19</v>
       </c>
       <c r="B98">
-        <v>28</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>19</v>
+      </c>
+      <c r="B99">
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B100">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
-        <v>20</v>
-      </c>
-      <c r="B101">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2113,7 +2287,7 @@
         <v>20</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2121,7 +2295,7 @@
         <v>20</v>
       </c>
       <c r="B103">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2129,23 +2303,23 @@
         <v>20</v>
       </c>
       <c r="B104">
-        <v>29</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>20</v>
+      </c>
+      <c r="B105">
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B106">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
-        <v>21</v>
-      </c>
-      <c r="B107">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2153,7 +2327,7 @@
         <v>21</v>
       </c>
       <c r="B108">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2161,23 +2335,23 @@
         <v>21</v>
       </c>
       <c r="B109">
-        <v>24</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>21</v>
+      </c>
+      <c r="B110">
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B111">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>22</v>
-      </c>
-      <c r="B112">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2185,7 +2359,7 @@
         <v>22</v>
       </c>
       <c r="B113">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2193,7 +2367,7 @@
         <v>22</v>
       </c>
       <c r="B114">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2201,7 +2375,7 @@
         <v>22</v>
       </c>
       <c r="B115">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2209,7 +2383,7 @@
         <v>22</v>
       </c>
       <c r="B116">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2217,23 +2391,23 @@
         <v>22</v>
       </c>
       <c r="B117">
-        <v>26</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>22</v>
+      </c>
+      <c r="B118">
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B119">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120">
-        <v>23</v>
-      </c>
-      <c r="B120">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2241,7 +2415,7 @@
         <v>23</v>
       </c>
       <c r="B121">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2249,7 +2423,7 @@
         <v>23</v>
       </c>
       <c r="B122">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2257,23 +2431,23 @@
         <v>23</v>
       </c>
       <c r="B123">
-        <v>27</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>23</v>
+      </c>
+      <c r="B124">
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B125">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126">
-        <v>24</v>
-      </c>
-      <c r="B126">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2281,31 +2455,31 @@
         <v>24</v>
       </c>
       <c r="B127">
-        <v>30</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>24</v>
+      </c>
+      <c r="B128">
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
+        <v>24</v>
+      </c>
+      <c r="B129">
         <v>25</v>
-      </c>
-      <c r="B129">
-        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B130">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131">
-        <v>25</v>
-      </c>
-      <c r="B131">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2313,7 +2487,7 @@
         <v>25</v>
       </c>
       <c r="B132">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2321,7 +2495,7 @@
         <v>25</v>
       </c>
       <c r="B133">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2329,31 +2503,31 @@
         <v>25</v>
       </c>
       <c r="B134">
-        <v>38</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>25</v>
+      </c>
+      <c r="B135">
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B136">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B137">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138">
-        <v>26</v>
-      </c>
-      <c r="B138">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2361,7 +2535,7 @@
         <v>26</v>
       </c>
       <c r="B139">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2369,7 +2543,7 @@
         <v>26</v>
       </c>
       <c r="B140">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2377,31 +2551,31 @@
         <v>26</v>
       </c>
       <c r="B141">
-        <v>38</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>26</v>
+      </c>
+      <c r="B142">
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
+        <v>26</v>
+      </c>
+      <c r="B143">
         <v>27</v>
-      </c>
-      <c r="B143">
-        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B144">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145">
-        <v>27</v>
-      </c>
-      <c r="B145">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2409,7 +2583,7 @@
         <v>27</v>
       </c>
       <c r="B146">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2417,7 +2591,7 @@
         <v>27</v>
       </c>
       <c r="B147">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2425,31 +2599,31 @@
         <v>27</v>
       </c>
       <c r="B148">
-        <v>38</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>27</v>
+      </c>
+      <c r="B149">
+        <v>28</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B150">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B151">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152">
-        <v>28</v>
-      </c>
-      <c r="B152">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2457,7 +2631,7 @@
         <v>28</v>
       </c>
       <c r="B153">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2465,28 +2639,36 @@
         <v>28</v>
       </c>
       <c r="B154">
-        <v>33</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>28</v>
+      </c>
+      <c r="B155">
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
+        <v>28</v>
+      </c>
+      <c r="B156">
         <v>29</v>
-      </c>
-      <c r="B156">
-        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B157">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B158">
         <v>33</v>
@@ -2494,39 +2676,39 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B160">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B161">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
+        <v>29</v>
+      </c>
+      <c r="B162">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
         <v>30</v>
       </c>
-      <c r="B162">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163">
-        <v>30</v>
-      </c>
-      <c r="B163">
-        <v>34</v>
+      <c r="B164">
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B165">
         <v>25</v>
@@ -2534,25 +2716,17 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
+        <v>30</v>
+      </c>
+      <c r="B166">
         <v>31</v>
-      </c>
-      <c r="B166">
-        <v>30</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B167">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168">
-        <v>31</v>
-      </c>
-      <c r="B168">
         <v>34</v>
       </c>
     </row>
@@ -2561,7 +2735,7 @@
         <v>31</v>
       </c>
       <c r="B169">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2569,39 +2743,39 @@
         <v>31</v>
       </c>
       <c r="B170">
-        <v>38</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>31</v>
+      </c>
+      <c r="B171">
+        <v>32</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B172">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B173">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B174">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175">
-        <v>32</v>
-      </c>
-      <c r="B175">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2609,7 +2783,7 @@
         <v>32</v>
       </c>
       <c r="B176">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2617,87 +2791,87 @@
         <v>32</v>
       </c>
       <c r="B177">
-        <v>36</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>32</v>
+      </c>
+      <c r="B178">
+        <v>31</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
+        <v>32</v>
+      </c>
+      <c r="B179">
         <v>33</v>
-      </c>
-      <c r="B179">
-        <v>28</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B180">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B181">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
+        <v>32</v>
+      </c>
+      <c r="B182">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
         <v>33</v>
       </c>
-      <c r="B182">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183">
-        <v>33</v>
-      </c>
-      <c r="B183">
-        <v>37</v>
+      <c r="B184">
+        <v>28</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B185">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B186">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B187">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B188">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189">
-        <v>34</v>
-      </c>
-      <c r="B189">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2705,46 +2879,46 @@
         <v>34</v>
       </c>
       <c r="B190">
-        <v>41</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>34</v>
+      </c>
+      <c r="B191">
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
+        <v>34</v>
+      </c>
+      <c r="B192">
         <v>35</v>
-      </c>
-      <c r="B192">
-        <v>31</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B193">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B194">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B195">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196">
-        <v>35</v>
-      </c>
-      <c r="B196">
         <v>41</v>
       </c>
     </row>
@@ -2753,47 +2927,47 @@
         <v>35</v>
       </c>
       <c r="B197">
-        <v>42</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198">
+        <v>35</v>
+      </c>
+      <c r="B198">
+        <v>32</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B199">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
+        <v>35</v>
+      </c>
+      <c r="B200">
         <v>36</v>
-      </c>
-      <c r="B200">
-        <v>33</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B201">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B202">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203">
-        <v>36</v>
-      </c>
-      <c r="B203">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2801,188 +2975,196 @@
         <v>36</v>
       </c>
       <c r="B204">
-        <v>46</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>36</v>
+      </c>
+      <c r="B205">
+        <v>33</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B206">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
+        <v>36</v>
+      </c>
+      <c r="B207">
         <v>37</v>
-      </c>
-      <c r="B207">
-        <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B208">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>36</v>
+      </c>
+      <c r="B209">
         <v>43</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B210">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211">
-        <v>38</v>
-      </c>
-      <c r="B211">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B212">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B213">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B214">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B216">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B217">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B218">
-        <v>44</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>38</v>
+      </c>
+      <c r="B219">
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B220">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221">
-        <v>40</v>
-      </c>
-      <c r="B221">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B222">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223">
+        <v>39</v>
+      </c>
+      <c r="B223">
         <v>40</v>
-      </c>
-      <c r="B223">
-        <v>44</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224">
+        <v>39</v>
+      </c>
+      <c r="B224">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
         <v>40</v>
       </c>
-      <c r="B224">
-        <v>45</v>
+      <c r="B226">
+        <v>34</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B227">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
+        <v>40</v>
+      </c>
+      <c r="B228">
         <v>41</v>
-      </c>
-      <c r="B228">
-        <v>35</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B229">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
+        <v>40</v>
+      </c>
+      <c r="B230">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
         <v>41</v>
       </c>
-      <c r="B230">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231">
-        <v>41</v>
-      </c>
-      <c r="B231">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232">
-        <v>41</v>
-      </c>
-      <c r="B232">
-        <v>46</v>
+      <c r="B233">
+        <v>34</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B234">
         <v>35</v>
@@ -2990,31 +3172,31 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B235">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
+        <v>41</v>
+      </c>
+      <c r="B236">
         <v>42</v>
-      </c>
-      <c r="B236">
-        <v>41</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B237">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B238">
         <v>46</v>
@@ -3022,142 +3204,207 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B240">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B241">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B242">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
+        <v>42</v>
+      </c>
+      <c r="B243">
         <v>43</v>
       </c>
-      <c r="B243">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245">
-        <v>44</v>
-      </c>
-      <c r="B245">
-        <v>40</v>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>42</v>
+      </c>
+      <c r="B244">
+        <v>46</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B246">
-        <v>45</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>43</v>
+      </c>
+      <c r="B247">
+        <v>37</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B248">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B249">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B250">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
         <v>44</v>
       </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251">
-        <v>45</v>
-      </c>
-      <c r="B251">
-        <v>46</v>
+      <c r="B252">
+        <v>39</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B253">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B254">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255">
-        <v>46</v>
-      </c>
-      <c r="B255">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B256">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B257">
-        <v>47</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>45</v>
+      </c>
+      <c r="B258">
+        <v>44</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259">
+        <v>45</v>
+      </c>
+      <c r="B259">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>46</v>
+      </c>
+      <c r="B261">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>46</v>
+      </c>
+      <c r="B262">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>46</v>
+      </c>
+      <c r="B263">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>46</v>
+      </c>
+      <c r="B264">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>46</v>
+      </c>
+      <c r="B265">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>46</v>
+      </c>
+      <c r="B266">
         <v>47</v>
       </c>
-      <c r="B259">
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>47</v>
+      </c>
+      <c r="B268">
         <v>43</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
-      <c r="A260">
+    <row r="269" spans="1:2">
+      <c r="A269">
         <v>47</v>
       </c>
-      <c r="B260">
+      <c r="B269">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3168,12 +3415,1522 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>22</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <v>31</v>
+      </c>
+      <c r="G26">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>29</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:I68">
+    <sortCondition ref="A47"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>23</v>
+      </c>
+      <c r="I16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>27</v>
+      </c>
+      <c r="H19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>24</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>27</v>
+      </c>
+      <c r="G26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>28</v>
+      </c>
+      <c r="F27">
+        <v>32</v>
+      </c>
+      <c r="G27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>29</v>
+      </c>
+      <c r="F28">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>32</v>
+      </c>
+      <c r="E31">
+        <v>34</v>
+      </c>
+      <c r="F31">
+        <v>35</v>
+      </c>
+      <c r="G31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>33</v>
+      </c>
+      <c r="F32">
+        <v>35</v>
+      </c>
+      <c r="G32">
+        <v>36</v>
+      </c>
+      <c r="H32">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>36</v>
+      </c>
+      <c r="F33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>35</v>
+      </c>
+      <c r="E34">
+        <v>39</v>
+      </c>
+      <c r="F34">
+        <v>40</v>
+      </c>
+      <c r="G34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>36</v>
+      </c>
+      <c r="F35">
+        <v>41</v>
+      </c>
+      <c r="G35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>37</v>
+      </c>
+      <c r="F36">
+        <v>42</v>
+      </c>
+      <c r="G36">
+        <v>43</v>
+      </c>
+      <c r="H36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>27</v>
+      </c>
+      <c r="E38">
+        <v>31</v>
+      </c>
+      <c r="F38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>41</v>
+      </c>
+      <c r="E40">
+        <v>44</v>
+      </c>
+      <c r="F40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>34</v>
+      </c>
+      <c r="C41">
+        <v>35</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>42</v>
+      </c>
+      <c r="F41">
+        <v>45</v>
+      </c>
+      <c r="G41">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <v>36</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>43</v>
+      </c>
+      <c r="F42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>36</v>
+      </c>
+      <c r="C43">
+        <v>37</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>46</v>
+      </c>
+      <c r="F43">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>39</v>
+      </c>
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>41</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>36</v>
+      </c>
+      <c r="C46">
+        <v>41</v>
+      </c>
+      <c r="D46">
+        <v>42</v>
+      </c>
+      <c r="E46">
+        <v>43</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>43</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:I94">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
